--- a/Recharge/April2021Recharge.xlsx
+++ b/Recharge/April2021Recharge.xlsx
@@ -47,6 +47,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="U5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N7" authorId="0">
       <text>
         <r>
@@ -70,7 +93,99 @@
         </r>
       </text>
     </comment>
+    <comment ref="P7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="194">
   <si>
     <t>S.No.</t>
   </si>
@@ -434,6 +549,9 @@
     <t>SONU PHONE GHAR(660815245)</t>
   </si>
   <si>
+    <t>Ganga communication</t>
+  </si>
+  <si>
     <t>0681066927/0681961014</t>
   </si>
   <si>
@@ -614,6 +732,9 @@
     <t>Ajay 9939757903</t>
   </si>
   <si>
+    <t>Sudhir Bandhan bank</t>
+  </si>
+  <si>
     <t>Aarti 9523733118</t>
   </si>
   <si>
@@ -636,6 +757,9 @@
   </si>
   <si>
     <t>Binay Lal</t>
+  </si>
+  <si>
+    <t>Arman Ala</t>
   </si>
   <si>
     <t>Sonu/Rupa 9708329918</t>
@@ -757,11 +881,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -780,6 +904,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -787,8 +927,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,17 +958,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,77 +1003,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,7 +1027,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,13 +1134,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,19 +1164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,13 +1188,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,109 +1308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,6 +1343,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1243,37 +1382,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1293,15 +1406,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1316,15 +1420,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1342,127 +1466,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1527,7 +1651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1569,13 +1693,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1907,11 +2031,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="M26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2054,22 +2178,22 @@
       <c r="A2" s="14"/>
       <c r="B2" s="26">
         <f>SUM(F3:F121)</f>
-        <v>560600</v>
+        <v>800600</v>
       </c>
       <c r="D2" s="15">
         <f>SUM(G3:G121)</f>
-        <v>400920</v>
+        <v>650520</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="27">
         <f>G2/1.04+H2</f>
-        <v>560600</v>
+        <v>800600</v>
       </c>
       <c r="G2" s="15">
         <f t="shared" ref="G2:G65" si="0">SUM(I2:AM2)</f>
-        <v>400920</v>
+        <v>650520</v>
       </c>
       <c r="H2" s="28">
         <f t="shared" ref="H2:AM2" si="1">SUM(H3:H121)</f>
@@ -2105,31 +2229,31 @@
       </c>
       <c r="P2" s="12">
         <f t="shared" si="1"/>
-        <v>18720</v>
+        <v>26000</v>
       </c>
       <c r="Q2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44720</v>
       </c>
       <c r="R2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29120</v>
       </c>
       <c r="S2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>59280</v>
       </c>
       <c r="T2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>53040</v>
       </c>
       <c r="U2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>46800</v>
       </c>
       <c r="V2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9360</v>
       </c>
       <c r="W2" s="12">
         <f t="shared" si="1"/>
@@ -2213,11 +2337,11 @@
       </c>
       <c r="F3" s="12">
         <f t="shared" ref="F2:F18" si="2">G3/1.04+H3</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H3" s="29">
         <v>0</v>
@@ -2234,7 +2358,9 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="33">
+        <v>3120</v>
+      </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -2269,11 +2395,11 @@
       </c>
       <c r="F4" s="12">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="H4" s="29">
         <v>1000</v>
@@ -2296,7 +2422,9 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="S4" s="1">
+        <v>1040</v>
+      </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -2333,11 +2461,11 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>7280</v>
       </c>
       <c r="H5" s="29">
         <v>1000</v>
@@ -2357,10 +2485,16 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="R5" s="1">
+        <v>1040</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1040</v>
+      </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1">
+        <v>2080</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -2453,11 +2587,11 @@
       </c>
       <c r="F7" s="12">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>47000</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="0"/>
-        <v>16640</v>
+        <v>29120</v>
       </c>
       <c r="H7" s="29">
         <v>19000</v>
@@ -2482,13 +2616,21 @@
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
+        <v>4160</v>
+      </c>
+      <c r="Q7" s="1">
         <v>2080</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="R7" s="1">
+        <v>4160</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2080</v>
+      </c>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="U7" s="1">
+        <v>2080</v>
+      </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -2523,11 +2665,11 @@
       </c>
       <c r="F8" s="12">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H8" s="29">
         <v>2000</v>
@@ -2545,7 +2687,9 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="T8" s="1">
+        <v>2080</v>
+      </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -2637,11 +2781,11 @@
       </c>
       <c r="F10" s="12">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H10" s="29">
         <v>5000</v>
@@ -2661,7 +2805,9 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="T10" s="1">
+        <v>5200</v>
+      </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -2695,11 +2841,11 @@
       </c>
       <c r="F11" s="12">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H11" s="29">
         <v>0</v>
@@ -2714,7 +2860,9 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1">
+        <v>2080</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2751,11 +2899,11 @@
       </c>
       <c r="F12" s="12">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H12" s="29">
         <v>1000</v>
@@ -2775,7 +2923,9 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="T12" s="1">
+        <v>1040</v>
+      </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -2809,11 +2959,11 @@
       </c>
       <c r="F13" s="12">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>15600</v>
       </c>
       <c r="H13" s="29">
         <v>5000</v>
@@ -2828,11 +2978,15 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1">
+        <v>5200</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1">
+        <v>5200</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -2865,11 +3019,11 @@
       </c>
       <c r="F14" s="12">
         <f t="shared" si="2"/>
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>24960</v>
       </c>
       <c r="H14" s="29">
         <v>4000</v>
@@ -2889,10 +3043,16 @@
         <v>5200</v>
       </c>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="33">
+        <v>2080</v>
+      </c>
       <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="T14" s="33">
+        <v>2080</v>
+      </c>
+      <c r="U14" s="1">
+        <v>5200</v>
+      </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -2927,11 +3087,11 @@
       </c>
       <c r="F15" s="12">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H15" s="29">
         <v>2000</v>
@@ -2948,7 +3108,9 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1">
+        <v>2080</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -3041,11 +3203,11 @@
       </c>
       <c r="F17" s="12">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>3640</v>
       </c>
       <c r="H17" s="29">
         <v>500</v>
@@ -3066,7 +3228,9 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1">
+        <v>1040</v>
+      </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -3106,11 +3270,11 @@
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H18" s="29">
         <v>1000</v>
@@ -3128,7 +3292,9 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="T18" s="1">
+        <v>1040</v>
+      </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -3162,11 +3328,11 @@
       </c>
       <c r="F19" s="12">
         <f t="shared" ref="F19:F82" si="3">G19/1.04+H19</f>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H19" s="29">
         <v>0</v>
@@ -3183,7 +3349,9 @@
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="R19" s="1">
+        <v>3120</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -3277,11 +3445,11 @@
       </c>
       <c r="F21" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H21" s="29">
         <v>0</v>
@@ -3299,7 +3467,9 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="T21" s="1">
+        <v>2080</v>
+      </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -3333,11 +3503,11 @@
       </c>
       <c r="F22" s="12">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H22" s="29">
         <v>1000</v>
@@ -3360,7 +3530,9 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="S22" s="1">
+        <v>2080</v>
+      </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -3395,11 +3567,11 @@
       </c>
       <c r="F23" s="12">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>15600</v>
       </c>
       <c r="H23" s="29">
         <v>5000</v>
@@ -3414,11 +3586,15 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="1">
+        <v>5200</v>
+      </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
+      <c r="U23" s="1">
+        <v>5200</v>
+      </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
@@ -3562,11 +3738,11 @@
       </c>
       <c r="F26" s="12">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>26000</v>
       </c>
       <c r="H26" s="29">
         <v>0</v>
@@ -3583,12 +3759,18 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="Q26" s="1">
+        <v>5200</v>
+      </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+      <c r="T26" s="1">
+        <v>5200</v>
+      </c>
       <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="V26" s="1">
+        <v>5200</v>
+      </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -3620,11 +3802,11 @@
       </c>
       <c r="F27" s="12">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H27" s="29">
         <v>3000</v>
@@ -3644,7 +3826,9 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="T27" s="1">
+        <v>3120</v>
+      </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
@@ -3678,11 +3862,11 @@
       </c>
       <c r="F28" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H28" s="29">
         <v>0</v>
@@ -3699,11 +3883,15 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="Q28" s="1">
+        <v>2080</v>
+      </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
+      <c r="U28" s="1">
+        <v>2080</v>
+      </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
@@ -3794,11 +3982,11 @@
       </c>
       <c r="F30" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H30" s="29">
         <v>0</v>
@@ -3819,7 +4007,9 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
+      <c r="U30" s="1">
+        <v>2080</v>
+      </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -3852,11 +4042,11 @@
       </c>
       <c r="F31" s="12">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H31" s="29">
         <v>0</v>
@@ -3872,7 +4062,9 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="R31" s="1">
+        <v>5200</v>
+      </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -3908,11 +4100,11 @@
       </c>
       <c r="F32" s="12">
         <f t="shared" si="3"/>
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>26000</v>
       </c>
       <c r="H32" s="29">
         <v>11000</v>
@@ -3933,9 +4125,13 @@
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="S32" s="1">
+        <v>5200</v>
+      </c>
       <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
+      <c r="U32" s="1">
+        <v>5200</v>
+      </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
@@ -3968,11 +4164,11 @@
       </c>
       <c r="F33" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H33" s="29">
         <v>0</v>
@@ -3988,7 +4184,9 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="R33" s="1">
+        <v>2080</v>
+      </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -4024,11 +4222,11 @@
       </c>
       <c r="F34" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H34" s="29">
         <v>1000</v>
@@ -4048,7 +4246,9 @@
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
+      <c r="R34" s="1">
+        <v>1040</v>
+      </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -4084,11 +4284,11 @@
       </c>
       <c r="F35" s="12">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G35" s="12">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="H35" s="29">
         <v>0</v>
@@ -4114,7 +4314,9 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="T35" s="1">
+        <v>1040</v>
+      </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -4148,11 +4350,11 @@
       </c>
       <c r="F36" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G36" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H36" s="29">
         <v>0</v>
@@ -4168,7 +4370,9 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="T36" s="1">
+        <v>2080</v>
+      </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -4202,11 +4406,11 @@
       </c>
       <c r="F37" s="12">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H37" s="29">
         <v>0</v>
@@ -4230,7 +4434,9 @@
         <v>3120</v>
       </c>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="R37" s="1">
+        <v>5200</v>
+      </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -4322,11 +4528,11 @@
       </c>
       <c r="F39" s="12">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="G39" s="12">
         <f t="shared" si="0"/>
-        <v>7280</v>
+        <v>10400</v>
       </c>
       <c r="H39" s="29">
         <v>0</v>
@@ -4345,7 +4551,9 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="Q39" s="1">
+        <v>3120</v>
+      </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -4385,11 +4593,11 @@
       </c>
       <c r="F40" s="12">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G40" s="12">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>3120</v>
       </c>
       <c r="H40" s="29">
         <v>0</v>
@@ -4405,7 +4613,9 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="R40" s="1">
+        <v>2080</v>
+      </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
@@ -4495,11 +4705,11 @@
       </c>
       <c r="F42" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G42" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H42" s="29">
         <v>0</v>
@@ -4515,7 +4725,9 @@
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="P42" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -4553,11 +4765,11 @@
       </c>
       <c r="F43" s="12">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="G43" s="12">
         <f t="shared" si="0"/>
-        <v>9360</v>
+        <v>18720</v>
       </c>
       <c r="H43" s="29">
         <v>3000</v>
@@ -4576,10 +4788,16 @@
         <v>3120</v>
       </c>
       <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="Q43" s="1">
+        <v>3120</v>
+      </c>
       <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="S43" s="1">
+        <v>3120</v>
+      </c>
+      <c r="T43" s="1">
+        <v>3120</v>
+      </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
@@ -4613,11 +4831,11 @@
       </c>
       <c r="F44" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G44" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H44" s="29">
         <v>0</v>
@@ -4634,7 +4852,9 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
+      <c r="S44" s="1">
+        <v>2080</v>
+      </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
@@ -4669,11 +4889,11 @@
       </c>
       <c r="F45" s="12">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G45" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H45" s="29">
         <v>6000</v>
@@ -4693,7 +4913,9 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
+      <c r="T45" s="1">
+        <v>3120</v>
+      </c>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
@@ -4787,11 +5009,11 @@
       </c>
       <c r="F47" s="12">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G47" s="12">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H47" s="29">
         <v>3000</v>
@@ -4806,7 +5028,9 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="Q47" s="1">
+        <v>3120</v>
+      </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4901,11 +5125,11 @@
       </c>
       <c r="F49" s="12">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="G49" s="12">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>21840</v>
       </c>
       <c r="H49" s="29">
         <v>1000</v>
@@ -4930,9 +5154,13 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
+      <c r="S49" s="1">
+        <v>3120</v>
+      </c>
       <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
+      <c r="U49" s="1">
+        <v>3120</v>
+      </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
@@ -4965,11 +5193,11 @@
       </c>
       <c r="F50" s="12">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G50" s="12">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H50" s="29">
         <v>0</v>
@@ -4988,7 +5216,9 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
+      <c r="U50" s="1">
+        <v>3120</v>
+      </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
@@ -5133,11 +5363,11 @@
       </c>
       <c r="F53" s="12">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="G53" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>13520</v>
       </c>
       <c r="H53" s="29">
         <v>0</v>
@@ -5165,11 +5395,19 @@
         <v>1040</v>
       </c>
       <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
+      <c r="R53" s="33">
+        <v>1040</v>
+      </c>
+      <c r="S53" s="1">
+        <v>2080</v>
+      </c>
       <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
+      <c r="U53" s="1">
+        <v>1040</v>
+      </c>
+      <c r="V53" s="1">
+        <v>1040</v>
+      </c>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
@@ -5201,11 +5439,11 @@
       </c>
       <c r="F54" s="12">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>10400</v>
       </c>
       <c r="H54" s="29">
         <v>2000</v>
@@ -5221,11 +5459,17 @@
         <v>2080</v>
       </c>
       <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="Q54" s="1">
+        <v>2080</v>
+      </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
+      <c r="T54" s="1">
+        <v>2080</v>
+      </c>
+      <c r="U54" s="1">
+        <v>2080</v>
+      </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
@@ -5314,11 +5558,11 @@
       </c>
       <c r="F56" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G56" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H56" s="29">
         <v>0</v>
@@ -5337,7 +5581,9 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
+      <c r="S56" s="1">
+        <v>1040</v>
+      </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
@@ -5426,11 +5672,11 @@
       </c>
       <c r="F58" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G58" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H58" s="29">
         <v>0</v>
@@ -5443,7 +5689,9 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="Q58" s="1">
+        <v>2080</v>
+      </c>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -5480,11 +5728,11 @@
       </c>
       <c r="F59" s="12">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G59" s="12">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H59" s="29">
         <v>0</v>
@@ -5504,7 +5752,9 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
+      <c r="T59" s="1">
+        <v>5200</v>
+      </c>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
@@ -5538,11 +5788,11 @@
       </c>
       <c r="F60" s="12">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G60" s="12">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H60" s="29">
         <v>0</v>
@@ -5559,7 +5809,9 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
+      <c r="S60" s="1">
+        <v>5200</v>
+      </c>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
@@ -5652,11 +5904,11 @@
       </c>
       <c r="F62" s="12">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G62" s="12">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H62" s="29">
         <v>0</v>
@@ -5678,7 +5930,9 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
+      <c r="U62" s="1">
+        <v>5200</v>
+      </c>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
@@ -5756,23 +6010,25 @@
       <c r="A64" s="11">
         <v>62</v>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="C64" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F64" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G64" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H64" s="29">
         <v>0</v>
@@ -5788,7 +6044,9 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
+      <c r="T64" s="1">
+        <v>5200</v>
+      </c>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
@@ -5818,18 +6076,18 @@
         <v>685671039</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F65" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G65" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H65" s="24">
         <v>2000</v>
@@ -5847,7 +6105,9 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
+      <c r="T65" s="1">
+        <v>2080</v>
+      </c>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
@@ -5874,10 +6134,10 @@
       </c>
       <c r="B66" s="30"/>
       <c r="D66" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F66" s="12">
         <f t="shared" si="3"/>
@@ -5932,10 +6192,10 @@
       </c>
       <c r="B67" s="30"/>
       <c r="D67" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F67" s="12">
         <f t="shared" si="3"/>
@@ -5988,18 +6248,18 @@
       </c>
       <c r="B68" s="23"/>
       <c r="D68" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F68" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G68" s="12">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H68" s="29">
         <v>0</v>
@@ -6018,9 +6278,13 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
+      <c r="S68" s="1">
+        <v>2080</v>
+      </c>
       <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
+      <c r="U68" s="1">
+        <v>2080</v>
+      </c>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
@@ -6046,10 +6310,10 @@
       </c>
       <c r="B69" s="23"/>
       <c r="D69" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F69" s="12">
         <f t="shared" si="3"/>
@@ -6103,10 +6367,10 @@
       </c>
       <c r="B70" s="23"/>
       <c r="D70" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F70" s="12">
         <f t="shared" si="3"/>
@@ -6159,18 +6423,18 @@
       </c>
       <c r="B71" s="23"/>
       <c r="D71" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F71" s="12">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G71" s="12">
         <f t="shared" si="4"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H71" s="29">
         <v>0</v>
@@ -6186,7 +6450,9 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
+      <c r="R71" s="1">
+        <v>1040</v>
+      </c>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
@@ -6215,18 +6481,18 @@
       </c>
       <c r="B72" s="23"/>
       <c r="D72" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F72" s="12">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G72" s="12">
         <f t="shared" si="4"/>
-        <v>15600</v>
+        <v>26000</v>
       </c>
       <c r="H72" s="29">
         <v>5000</v>
@@ -6245,10 +6511,14 @@
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="Q72" s="1">
+        <v>5200</v>
+      </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
+      <c r="T72" s="1">
+        <v>5200</v>
+      </c>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
@@ -6275,18 +6545,18 @@
       </c>
       <c r="B73" s="23"/>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F73" s="12">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="G73" s="12">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>12480</v>
       </c>
       <c r="H73" s="29">
         <v>3000</v>
@@ -6302,10 +6572,14 @@
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
+      <c r="P73" s="1">
+        <v>3120</v>
+      </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
+      <c r="S73" s="1">
+        <v>3120</v>
+      </c>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
@@ -6333,18 +6607,18 @@
       </c>
       <c r="B74" s="30"/>
       <c r="D74" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F74" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G74" s="12">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H74" s="29">
         <v>0</v>
@@ -6363,7 +6637,9 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
+      <c r="S74" s="1">
+        <v>2080</v>
+      </c>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
@@ -6394,10 +6670,10 @@
         <v>683909558</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F75" s="12">
         <f t="shared" si="3"/>
@@ -6448,10 +6724,10 @@
       </c>
       <c r="B76" s="30"/>
       <c r="D76" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F76" s="12">
         <f t="shared" si="3"/>
@@ -6503,18 +6779,18 @@
       </c>
       <c r="B77" s="23"/>
       <c r="D77" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F77" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G77" s="12">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H77" s="29">
         <v>0</v>
@@ -6534,10 +6810,18 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
+      <c r="R77" s="1">
+        <v>1040</v>
+      </c>
+      <c r="S77" s="1">
+        <v>1040</v>
+      </c>
+      <c r="T77" s="1">
+        <v>1040</v>
+      </c>
+      <c r="U77" s="1">
+        <v>1040</v>
+      </c>
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
@@ -6563,18 +6847,18 @@
       </c>
       <c r="B78" s="23"/>
       <c r="D78" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F78" s="12">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="G78" s="12">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>15600</v>
       </c>
       <c r="H78" s="29">
         <v>3000</v>
@@ -6591,12 +6875,17 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
+      <c r="Q78" s="1">
+        <v>3120</v>
+      </c>
       <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
+      <c r="S78" s="1">
+        <v>3120</v>
+      </c>
       <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
+      <c r="V78" s="1">
+        <v>3120</v>
+      </c>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
@@ -6621,10 +6910,10 @@
       </c>
       <c r="B79" s="23"/>
       <c r="D79" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F79" s="12">
         <f t="shared" si="3"/>
@@ -6679,7 +6968,7 @@
       </c>
       <c r="B80" s="30"/>
       <c r="E80" s="31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F80" s="12">
         <f t="shared" si="3"/>
@@ -6734,18 +7023,18 @@
       </c>
       <c r="B81" s="30"/>
       <c r="D81" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F81" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G81" s="12">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H81" s="29">
         <v>0</v>
@@ -6762,7 +7051,9 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
+      <c r="S81" s="1">
+        <v>2080</v>
+      </c>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
@@ -6790,7 +7081,7 @@
       </c>
       <c r="B82" s="30"/>
       <c r="E82" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F82" s="12">
         <f t="shared" si="3"/>
@@ -6841,10 +7132,10 @@
       </c>
       <c r="B83" s="30"/>
       <c r="D83" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F83" s="12">
         <f t="shared" ref="F83:F96" si="5">G83/1.04+H83</f>
@@ -6897,7 +7188,7 @@
       </c>
       <c r="B84" s="30"/>
       <c r="E84" s="31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F84" s="12">
         <f t="shared" si="5"/>
@@ -6948,18 +7239,18 @@
       </c>
       <c r="B85" s="30"/>
       <c r="D85" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F85" s="12">
         <f t="shared" si="5"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G85" s="12">
         <f t="shared" si="4"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H85" s="29">
         <v>0</v>
@@ -6978,7 +7269,9 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
+      <c r="S85" s="1">
+        <v>5200</v>
+      </c>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
@@ -7006,18 +7299,18 @@
       </c>
       <c r="B86" s="23"/>
       <c r="D86" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F86" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G86" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H86" s="29">
         <v>0</v>
@@ -7032,7 +7325,9 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
+      <c r="S86" s="1">
+        <v>5200</v>
+      </c>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
@@ -7063,10 +7358,10 @@
         <v>683879115</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F87" s="12">
         <f t="shared" si="5"/>
@@ -7117,10 +7412,10 @@
       </c>
       <c r="B88" s="30"/>
       <c r="D88" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F88" s="12">
         <f t="shared" si="5"/>
@@ -7173,7 +7468,7 @@
       </c>
       <c r="B89" s="30"/>
       <c r="E89" s="31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F89" s="12">
         <f t="shared" si="5"/>
@@ -7224,15 +7519,15 @@
       </c>
       <c r="B90" s="30"/>
       <c r="E90" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F90" s="12">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G90" s="12">
         <f t="shared" si="4"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H90" s="29">
         <v>0</v>
@@ -7249,7 +7544,9 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
+      <c r="S90" s="33">
+        <v>1040</v>
+      </c>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
@@ -7277,7 +7574,7 @@
       </c>
       <c r="B91" s="30"/>
       <c r="E91" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F91" s="12">
         <f t="shared" si="5"/>
@@ -7328,15 +7625,15 @@
       </c>
       <c r="B92" s="23"/>
       <c r="E92" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F92" s="12">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G92" s="12">
         <f t="shared" si="4"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H92" s="29">
         <v>0</v>
@@ -7355,7 +7652,9 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
+      <c r="Q92" s="1">
+        <v>1040</v>
+      </c>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
@@ -7385,7 +7684,7 @@
       </c>
       <c r="B93" s="23"/>
       <c r="E93" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F93" s="12">
         <f t="shared" si="5"/>
@@ -7436,18 +7735,18 @@
       </c>
       <c r="B94" s="23"/>
       <c r="D94" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F94" s="12">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G94" s="12">
         <f t="shared" si="4"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H94" s="29">
         <v>1000</v>
@@ -7465,7 +7764,9 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
+      <c r="T94" s="1">
+        <v>1040</v>
+      </c>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
@@ -7492,7 +7793,7 @@
       </c>
       <c r="B95" s="23"/>
       <c r="E95" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F95" s="12">
         <f t="shared" si="5"/>
@@ -7543,7 +7844,7 @@
       </c>
       <c r="B96" s="23"/>
       <c r="E96" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F96" s="12">
         <f t="shared" si="5"/>
@@ -7673,11 +7974,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="J81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="L77" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O101" sqref="O101"/>
+      <selection pane="bottomRight" activeCell="U97" sqref="U97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7711,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>
@@ -7720,7 +8021,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I1" s="19">
         <v>44287</v>
@@ -7822,14 +8123,14 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15">
         <f>SUM(H3:H121)</f>
-        <v>343800</v>
+        <v>610800</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="17">
         <f t="shared" ref="H2:H65" si="0">SUM(I2:AM2)</f>
-        <v>343800</v>
+        <v>610800</v>
       </c>
       <c r="I2" s="12">
         <f t="shared" ref="I2:AJ2" si="1">SUM(I3:I121)</f>
@@ -7861,27 +8162,27 @@
       </c>
       <c r="P2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="Q2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40500</v>
       </c>
       <c r="R2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="S2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="T2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44200</v>
       </c>
       <c r="U2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82300</v>
       </c>
       <c r="V2" s="12">
         <f t="shared" si="1"/>
@@ -7957,13 +8258,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E3" s="11">
         <v>9334066332</v>
@@ -7976,7 +8277,7 @@
       </c>
       <c r="H3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -7986,11 +8287,15 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="20">
+        <v>3000</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="U3" s="20">
+        <v>3000</v>
+      </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -8015,16 +8320,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" s="11">
         <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>9</v>
@@ -8034,7 +8339,7 @@
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="20">
@@ -8045,11 +8350,15 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="P4" s="20">
+        <v>2500</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="T4" s="20">
+        <v>2000</v>
+      </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -8088,7 +8397,7 @@
       </c>
       <c r="H5" s="12">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
@@ -8108,7 +8417,9 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1">
+        <v>2000</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -8133,13 +8444,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6" s="11">
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E6" s="11">
         <v>9102317719</v>
@@ -8152,7 +8463,7 @@
       </c>
       <c r="H6" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -8165,12 +8476,16 @@
         <v>2000</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="20">
+        <v>2000</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="U6" s="20">
+        <v>3000</v>
+      </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -8195,13 +8510,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C7" s="11">
         <v>5</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E7" s="11">
         <v>8210924561</v>
@@ -8214,7 +8529,7 @@
       </c>
       <c r="H7" s="12">
         <f t="shared" si="0"/>
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="20">
@@ -8232,7 +8547,9 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="U7" s="20">
+        <v>10000</v>
+      </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -8270,7 +8587,7 @@
       </c>
       <c r="H8" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I8" s="1">
         <v>2000</v>
@@ -8288,7 +8605,9 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="U8" s="1">
+        <v>2000</v>
+      </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -8380,7 +8699,7 @@
       </c>
       <c r="H10" s="12">
         <f t="shared" si="0"/>
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="I10" s="1">
         <v>5000</v>
@@ -8396,11 +8715,17 @@
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1">
+        <v>2500</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="T10" s="1">
+        <v>2500</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2500</v>
+      </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -8425,13 +8750,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C11" s="11">
         <v>9</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E11" s="11">
         <v>9973022718</v>
@@ -8444,7 +8769,7 @@
       </c>
       <c r="H11" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -8459,7 +8784,9 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="T11" s="20">
+        <v>2000</v>
+      </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -8498,7 +8825,7 @@
       </c>
       <c r="H12" s="12">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -8515,8 +8842,12 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="T12" s="1">
+        <v>700</v>
+      </c>
+      <c r="U12" s="1">
+        <v>300</v>
+      </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -8544,7 +8875,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E13" s="11">
         <v>8340182577</v>
@@ -8557,7 +8888,7 @@
       </c>
       <c r="H13" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -8575,7 +8906,9 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="U13" s="20">
+        <v>10000</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -8600,13 +8933,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="11">
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E14" s="11">
         <v>7004740439</v>
@@ -8619,7 +8952,7 @@
       </c>
       <c r="H14" s="12">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>21000</v>
       </c>
       <c r="I14" s="1">
         <v>2000</v>
@@ -8638,12 +8971,22 @@
       <c r="O14" s="1">
         <v>3000</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="P14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2000</v>
+      </c>
       <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="T14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2500</v>
+      </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -8684,7 +9027,7 @@
       </c>
       <c r="H15" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I15" s="1">
         <v>2000</v>
@@ -8702,7 +9045,9 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="U15" s="1">
+        <v>2000</v>
+      </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -8727,13 +9072,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" s="11">
         <v>14</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E16" s="11">
         <v>7321004323</v>
@@ -8746,7 +9091,7 @@
       </c>
       <c r="H16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -8755,7 +9100,9 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="1">
+        <v>1000</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -8788,7 +9135,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E17" s="11">
         <v>7903378748</v>
@@ -8801,7 +9148,7 @@
       </c>
       <c r="H17" s="12">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I17" s="1">
         <v>1000</v>
@@ -8814,7 +9161,9 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="1">
+        <v>1000</v>
+      </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -8855,7 +9204,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -8865,7 +9214,9 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="1">
+        <v>1000</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -8894,13 +9245,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" s="11">
         <v>17</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E19" s="11">
         <v>9608475282</v>
@@ -8913,7 +9264,7 @@
       </c>
       <c r="H19" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
@@ -8926,12 +9277,16 @@
       <c r="O19" s="1">
         <v>1000</v>
       </c>
-      <c r="P19" s="1"/>
+      <c r="P19" s="1">
+        <v>2000</v>
+      </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
+      <c r="U19" s="1">
+        <v>3000</v>
+      </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -8956,13 +9311,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" s="11">
         <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E20" s="11">
         <v>9661555592</v>
@@ -8975,7 +9330,7 @@
       </c>
       <c r="H20" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
@@ -8988,7 +9343,9 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="R20" s="1">
+        <v>5000</v>
+      </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -9016,13 +9373,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" s="11">
         <v>19</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E21" s="11">
         <v>8340523512</v>
@@ -9035,7 +9392,7 @@
       </c>
       <c r="H21" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -9044,11 +9401,15 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="P21" s="1">
+        <v>2000</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="T21" s="1">
+        <v>2000</v>
+      </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -9076,6 +9437,9 @@
       <c r="C22" s="11">
         <v>20</v>
       </c>
+      <c r="D22" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="E22" s="11">
         <v>8825310472</v>
       </c>
@@ -9087,7 +9451,7 @@
       </c>
       <c r="H22" s="12">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
@@ -9102,12 +9466,18 @@
         <v>1000</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="P22" s="20">
+        <v>1500</v>
+      </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="R22" s="20">
+        <v>1000</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="U22" s="1">
+        <v>1000</v>
+      </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
@@ -9132,13 +9502,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C23" s="11">
         <v>21</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E23" s="11">
         <v>7004478123</v>
@@ -9151,7 +9521,7 @@
       </c>
       <c r="H23" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="I23" s="20">
         <v>5000</v>
@@ -9168,7 +9538,9 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="T23" s="20">
+        <v>5000</v>
+      </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -9246,13 +9618,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C25" s="11">
         <v>23</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E25" s="11">
         <v>7006041121</v>
@@ -9310,13 +9682,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C26" s="11">
         <v>24</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E26" s="11">
         <v>8709658240</v>
@@ -9329,7 +9701,7 @@
       </c>
       <c r="H26" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -9343,11 +9715,15 @@
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="Q26" s="20">
+        <v>5000</v>
+      </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
+      <c r="U26" s="20">
+        <v>5000</v>
+      </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
@@ -9437,7 +9813,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E28" s="11">
         <v>9973040600</v>
@@ -9450,7 +9826,7 @@
       </c>
       <c r="H28" s="12">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -9463,7 +9839,9 @@
         <v>1000</v>
       </c>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="P28" s="20">
+        <v>1000</v>
+      </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -9560,7 +9938,7 @@
       </c>
       <c r="H30" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
@@ -9574,11 +9952,15 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="Q30" s="1">
+        <v>2000</v>
+      </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
+      <c r="U30" s="1">
+        <v>2000</v>
+      </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -9603,13 +9985,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C31" s="11">
         <v>29</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>36</v>
@@ -9619,7 +10001,7 @@
       </c>
       <c r="H31" s="12">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -9632,7 +10014,9 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="R31" s="1">
+        <v>5000</v>
+      </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -9660,13 +10044,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C32" s="11">
         <v>30</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>36</v>
@@ -9676,7 +10060,7 @@
       </c>
       <c r="H32" s="12">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -9689,9 +10073,13 @@
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="R32" s="20">
+        <v>6000</v>
+      </c>
       <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
+      <c r="T32" s="1">
+        <v>6000</v>
+      </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -9727,7 +10115,7 @@
       </c>
       <c r="H33" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -9744,8 +10132,12 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
+      <c r="T33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1000</v>
+      </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
@@ -9770,13 +10162,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C34" s="11">
         <v>32</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>51</v>
@@ -9786,7 +10178,7 @@
       </c>
       <c r="H34" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="I34" s="1">
         <v>1000</v>
@@ -9807,7 +10199,9 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
+      <c r="T34" s="1">
+        <v>1000</v>
+      </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
@@ -9843,7 +10237,7 @@
       </c>
       <c r="H35" s="12">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
@@ -9864,7 +10258,9 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="T35" s="1">
+        <v>1000</v>
+      </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -9892,6 +10288,9 @@
       <c r="C36" s="11">
         <v>34</v>
       </c>
+      <c r="D36" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="E36" s="11">
         <v>7654800030</v>
       </c>
@@ -9903,7 +10302,7 @@
       </c>
       <c r="H36" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -9916,7 +10315,9 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="T36" s="1">
+        <v>2000</v>
+      </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -9952,7 +10353,7 @@
       </c>
       <c r="H37" s="12">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="20">
@@ -9968,8 +10369,12 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="Q37" s="1">
+        <v>6000</v>
+      </c>
+      <c r="R37" s="20">
+        <v>5000</v>
+      </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -10046,13 +10451,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C39" s="11">
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>51</v>
@@ -10062,7 +10467,7 @@
       </c>
       <c r="H39" s="12">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="20">
@@ -10075,12 +10480,16 @@
       <c r="O39" s="20">
         <v>3000</v>
       </c>
-      <c r="P39" s="1"/>
+      <c r="P39" s="20">
+        <v>1000</v>
+      </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
+      <c r="U39" s="20">
+        <v>3000</v>
+      </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -10105,16 +10514,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C40" s="11">
         <v>38</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>51</v>
@@ -10124,7 +10533,7 @@
       </c>
       <c r="H40" s="12">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -10139,7 +10548,9 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
+      <c r="T40" s="20">
+        <v>2000</v>
+      </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
@@ -10224,7 +10635,7 @@
       </c>
       <c r="H42" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1">
@@ -10238,7 +10649,9 @@
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="Q42" s="1">
+        <v>2000</v>
+      </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -10280,7 +10693,7 @@
       </c>
       <c r="H43" s="12">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
@@ -10298,10 +10711,16 @@
         <v>3000</v>
       </c>
       <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
+      <c r="Q43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="R43" s="1">
+        <v>3000</v>
+      </c>
       <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="T43" s="1">
+        <v>3000</v>
+      </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
@@ -10330,7 +10749,7 @@
         <v>42</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>51</v>
@@ -10340,7 +10759,7 @@
       </c>
       <c r="H44" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -10355,7 +10774,9 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
+      <c r="T44" s="1">
+        <v>2000</v>
+      </c>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
@@ -10384,7 +10805,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>51</v>
@@ -10394,7 +10815,7 @@
       </c>
       <c r="H45" s="12">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="I45" s="1">
         <v>6000</v>
@@ -10408,7 +10829,9 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="Q45" s="20">
+        <v>3000</v>
+      </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -10437,13 +10860,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C46" s="11">
         <v>44</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>64</v>
@@ -10453,7 +10876,7 @@
       </c>
       <c r="H46" s="12">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -10465,7 +10888,9 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="Q46" s="1">
+        <v>6000</v>
+      </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -10497,7 +10922,7 @@
         <v>45</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>64</v>
@@ -10552,13 +10977,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C48" s="11">
         <v>46</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E48" s="11">
         <v>7004729703</v>
@@ -10571,7 +10996,7 @@
       </c>
       <c r="H48" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -10583,7 +11008,9 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="Q48" s="20">
+        <v>2000</v>
+      </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -10612,13 +11039,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C49" s="11">
         <v>47</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E49" s="11">
         <v>8863097933</v>
@@ -10631,7 +11058,7 @@
       </c>
       <c r="H49" s="12">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>15500</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
@@ -10646,9 +11073,13 @@
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="P49" s="20">
+        <v>5000</v>
+      </c>
       <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
+      <c r="R49" s="1">
+        <v>3000</v>
+      </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
@@ -10676,13 +11107,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C50" s="11">
         <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E50" s="11">
         <v>9835443096</v>
@@ -10734,13 +11165,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C51" s="11">
         <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>64</v>
@@ -10842,13 +11273,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C53" s="11">
         <v>51</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>64</v>
@@ -10858,7 +11289,7 @@
       </c>
       <c r="H53" s="12">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1">
@@ -10871,9 +11302,13 @@
         <v>3000</v>
       </c>
       <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
+      <c r="P53" s="20">
+        <v>2000</v>
+      </c>
       <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
+      <c r="R53" s="20">
+        <v>2000</v>
+      </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
@@ -10911,7 +11346,7 @@
       </c>
       <c r="H54" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -10923,7 +11358,9 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="Q54" s="1">
+        <v>2000</v>
+      </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -10952,13 +11389,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C55" s="11">
         <v>53</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>64</v>
@@ -11009,13 +11446,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C56" s="11">
         <v>54</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>64</v>
@@ -11025,7 +11462,7 @@
       </c>
       <c r="H56" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -11039,7 +11476,9 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
+      <c r="U56" s="20">
+        <v>2000</v>
+      </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
@@ -11129,7 +11568,7 @@
       </c>
       <c r="H58" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -11140,7 +11579,9 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
+      <c r="R58" s="1">
+        <v>2000</v>
+      </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
@@ -11168,13 +11609,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C59" s="11">
         <v>57</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>77</v>
@@ -11184,7 +11625,7 @@
       </c>
       <c r="H59" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -11195,7 +11636,9 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
+      <c r="R59" s="20">
+        <v>10000</v>
+      </c>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
@@ -11233,7 +11676,7 @@
       </c>
       <c r="H60" s="12">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -11246,7 +11689,9 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
+      <c r="R60" s="1">
+        <v>5000</v>
+      </c>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
@@ -11328,13 +11773,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C62" s="11">
         <v>60</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E62" s="11">
         <v>9504958065</v>
@@ -11347,7 +11792,7 @@
       </c>
       <c r="H62" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -11360,10 +11805,14 @@
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
+      <c r="R62" s="20">
+        <v>5000</v>
+      </c>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
+      <c r="U62" s="20">
+        <v>5000</v>
+      </c>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
@@ -11440,26 +11889,26 @@
         <v>62</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C64" s="11">
         <v>62</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H64" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -11471,7 +11920,9 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
+      <c r="S64" s="20">
+        <v>5000</v>
+      </c>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
@@ -11498,22 +11949,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C65" s="11">
         <v>63</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E65" s="11">
         <v>7004399486</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H65" s="12">
         <f t="shared" si="0"/>
@@ -11560,23 +12011,23 @@
         <v>64</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C66" s="11">
         <v>64</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H66" s="12">
         <f t="shared" ref="H66:H96" si="2">SUM(I66:AM66)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -11587,7 +12038,9 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
+      <c r="P66" s="20">
+        <v>2000</v>
+      </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -11620,14 +12073,14 @@
         <v>65</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H67" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -11638,7 +12091,9 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
+      <c r="R67" s="1">
+        <v>2000</v>
+      </c>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
@@ -11669,14 +12124,14 @@
         <v>66</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H68" s="12">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -11692,7 +12147,9 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
+      <c r="U68" s="1">
+        <v>4000</v>
+      </c>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
@@ -11720,10 +12177,10 @@
         <v>67</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H69" s="12">
         <f t="shared" si="2"/>
@@ -11776,10 +12233,10 @@
         <v>7903311240</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H70" s="12">
         <f t="shared" si="2"/>
@@ -11827,14 +12284,14 @@
         <v>69</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H71" s="12">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -11849,7 +12306,9 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
+      <c r="T71" s="1">
+        <v>1000</v>
+      </c>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
@@ -11878,17 +12337,17 @@
         <v>70</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H72" s="12">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="I72" s="1">
         <v>5000</v>
@@ -11909,8 +12368,12 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
+      <c r="T72" s="1">
+        <v>5000</v>
+      </c>
+      <c r="U72" s="1">
+        <v>5000</v>
+      </c>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
@@ -11938,14 +12401,14 @@
         <v>71</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H73" s="12">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="I73" s="1">
         <v>3000</v>
@@ -11961,11 +12424,15 @@
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="Q73" s="20">
+        <v>2000</v>
+      </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
+      <c r="U73" s="1">
+        <v>4000</v>
+      </c>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
@@ -11990,26 +12457,26 @@
         <v>72</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C74" s="11">
         <v>72</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E74" s="11">
         <v>8825370430</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H74" s="12">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1">
@@ -12026,7 +12493,9 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
+      <c r="T74" s="20">
+        <v>2000</v>
+      </c>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
@@ -12058,10 +12527,10 @@
         <v>9631378928</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H75" s="12">
         <f t="shared" si="2"/>
@@ -12107,14 +12576,14 @@
         <v>74</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H76" s="12">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -12129,7 +12598,9 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
+      <c r="T76" s="1">
+        <v>1000</v>
+      </c>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
@@ -12155,26 +12626,26 @@
         <v>75</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C77" s="11">
         <v>75</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E77" s="11">
         <v>6200769032</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H77" s="12">
         <f t="shared" si="2"/>
-        <v>2800</v>
+        <v>5800</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -12187,10 +12658,14 @@
       </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
+      <c r="R77" s="1">
+        <v>1000</v>
+      </c>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
+      <c r="U77" s="1">
+        <v>2000</v>
+      </c>
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
@@ -12215,23 +12690,23 @@
         <v>76</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C78" s="11">
         <v>76</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H78" s="12">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -12249,7 +12724,9 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
+      <c r="S78" s="20">
+        <v>3000</v>
+      </c>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
@@ -12276,19 +12753,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C79" s="11">
         <v>77</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H79" s="12">
         <f t="shared" si="2"/>
@@ -12336,7 +12813,7 @@
         <v>78</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H80" s="12">
         <f t="shared" si="2"/>
@@ -12379,22 +12856,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C81" s="11">
         <v>79</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H81" s="12">
         <f t="shared" si="2"/>
@@ -12442,7 +12919,7 @@
         <v>80</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H82" s="12">
         <f t="shared" si="2"/>
@@ -12488,14 +12965,14 @@
         <v>81</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H83" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -12509,7 +12986,9 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
+      <c r="U83" s="20">
+        <v>2000</v>
+      </c>
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
@@ -12537,7 +13016,7 @@
         <v>82</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H84" s="12">
         <f t="shared" si="2"/>
@@ -12580,23 +13059,23 @@
         <v>83</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C85" s="11">
         <v>83</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H85" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -12605,7 +13084,9 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
+      <c r="P85" s="1">
+        <v>10000</v>
+      </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -12641,14 +13122,14 @@
         <v>9934079439</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H86" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -12662,7 +13143,9 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
+      <c r="U86" s="1">
+        <v>5000</v>
+      </c>
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
@@ -12687,22 +13170,22 @@
         <v>85</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C87" s="11">
         <v>85</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E87" s="11">
         <v>7903552643</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H87" s="12">
         <f t="shared" si="2"/>
@@ -12748,16 +13231,16 @@
         <v>86</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E88" s="11">
         <v>9911430509</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H88" s="12">
         <f t="shared" si="2"/>
@@ -12805,7 +13288,7 @@
         <v>87</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H89" s="12">
         <f t="shared" si="2"/>
@@ -12848,20 +13331,20 @@
         <v>88</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C90" s="11">
         <v>88</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H90" s="12">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="20">
@@ -12877,7 +13360,9 @@
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
+      <c r="U90" s="20">
+        <v>1000</v>
+      </c>
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
@@ -12905,7 +13390,7 @@
         <v>89</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H91" s="12">
         <f t="shared" si="2"/>
@@ -12951,16 +13436,16 @@
         <v>90</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E92" s="11">
         <v>9015378357</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H92" s="12">
         <f t="shared" si="2"/>
@@ -13008,7 +13493,7 @@
         <v>91</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H93" s="12">
         <f t="shared" si="2"/>
@@ -13054,10 +13539,10 @@
         <v>92</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H94" s="12">
         <f t="shared" si="2"/>
@@ -13105,7 +13590,7 @@
         <v>93</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H95" s="12">
         <f t="shared" si="2"/>
@@ -13151,7 +13636,7 @@
         <v>94</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H96" s="12">
         <f t="shared" si="2"/>
@@ -13250,7 +13735,7 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D94"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -13269,13 +13754,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13286,14 +13771,14 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>216800</v>
+        <v>189800</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(D3:D96)</f>
-        <v>216800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>189800</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -13305,7 +13790,7 @@
       </c>
       <c r="D3" s="10">
         <f>Orders!F3-Collection!H3</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -13320,7 +13805,7 @@
       </c>
       <c r="D4" s="10">
         <f>Orders!F4-Collection!H4</f>
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13335,10 +13820,10 @@
       </c>
       <c r="D5" s="10">
         <f>Orders!F5-Collection!H5</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -13350,7 +13835,7 @@
       </c>
       <c r="D6" s="10">
         <f>Orders!F6-Collection!H6</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -13365,7 +13850,7 @@
       </c>
       <c r="D7" s="10">
         <f>Orders!F7-Collection!H7</f>
-        <v>12000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="8" hidden="1" spans="1:4">
@@ -13398,7 +13883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" hidden="1" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -13410,7 +13895,7 @@
       </c>
       <c r="D10" s="10">
         <f>Orders!F10-Collection!H10</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="1:4">
@@ -13470,7 +13955,7 @@
       </c>
       <c r="D14" s="10">
         <f>Orders!F14-Collection!H14</f>
-        <v>10500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="15" hidden="1" spans="1:4">
@@ -13500,7 +13985,7 @@
       </c>
       <c r="D16" s="10">
         <f>Orders!F16-Collection!H16</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13533,7 +14018,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" hidden="1" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
@@ -13545,10 +14030,10 @@
       </c>
       <c r="D19" s="10">
         <f>Orders!F19-Collection!H19</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -13560,10 +14045,10 @@
       </c>
       <c r="D20" s="10">
         <f>Orders!F20-Collection!H20</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
@@ -13575,7 +14060,7 @@
       </c>
       <c r="D21" s="10">
         <f>Orders!F21-Collection!H21</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -13590,10 +14075,10 @@
       </c>
       <c r="D22" s="10">
         <f>Orders!F22-Collection!H22</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="23" hidden="1" spans="1:4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>36</v>
       </c>
@@ -13605,7 +14090,7 @@
       </c>
       <c r="D23" s="10">
         <f>Orders!F23-Collection!H23</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" hidden="1" spans="1:4">
@@ -13638,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:4">
+    <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>36</v>
       </c>
@@ -13650,10 +14135,10 @@
       </c>
       <c r="D26" s="10">
         <f>Orders!F26-Collection!H26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" hidden="1" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
@@ -13665,7 +14150,7 @@
       </c>
       <c r="D27" s="10">
         <f>Orders!F27-Collection!H27</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -13680,7 +14165,7 @@
       </c>
       <c r="D28" s="10">
         <f>Orders!F28-Collection!H28</f>
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:4">
@@ -13698,7 +14183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" hidden="1" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>36</v>
       </c>
@@ -13710,7 +14195,7 @@
       </c>
       <c r="D30" s="10">
         <f>Orders!F30-Collection!H30</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" hidden="1" spans="1:4">
@@ -13740,7 +14225,7 @@
       </c>
       <c r="D32" s="10">
         <f>Orders!F32-Collection!H32</f>
-        <v>10000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:4">
@@ -13803,7 +14288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" hidden="1" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>51</v>
       </c>
@@ -13815,14 +14300,16 @@
       </c>
       <c r="D37" s="10">
         <f>Orders!F37-Collection!H37</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="8"/>
+      <c r="B38" s="8">
+        <v>9122226207</v>
+      </c>
       <c r="C38" s="9" t="s">
         <v>56</v>
       </c>
@@ -13831,7 +14318,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" hidden="1" spans="1:4">
       <c r="A39" s="8" t="s">
         <v>51</v>
       </c>
@@ -13843,7 +14330,7 @@
       </c>
       <c r="D39" s="10">
         <f>Orders!F39-Collection!H39</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" hidden="1" spans="1:4">
@@ -13903,7 +14390,7 @@
       </c>
       <c r="D43" s="10">
         <f>Orders!F43-Collection!H43</f>
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:4">
@@ -13934,7 +14421,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="8" t="s">
         <v>64</v>
       </c>
@@ -13946,10 +14433,10 @@
       </c>
       <c r="D46" s="10">
         <f>Orders!F46-Collection!H46</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="47" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
         <v>64</v>
       </c>
@@ -13961,10 +14448,10 @@
       </c>
       <c r="D47" s="10">
         <f>Orders!F47-Collection!H47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="1:4">
       <c r="A48" s="8" t="s">
         <v>64</v>
       </c>
@@ -13974,7 +14461,7 @@
       </c>
       <c r="D48" s="10">
         <f>Orders!F48-Collection!H48</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -13989,7 +14476,7 @@
       </c>
       <c r="D49" s="10">
         <f>Orders!F49-Collection!H49</f>
-        <v>8500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -14004,7 +14491,7 @@
       </c>
       <c r="D50" s="10">
         <f>Orders!F50-Collection!H50</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="51" hidden="1" spans="1:4">
@@ -14047,7 +14534,7 @@
       </c>
       <c r="D53" s="10">
         <f>Orders!F53-Collection!H53</f>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -14062,7 +14549,7 @@
       </c>
       <c r="D54" s="10">
         <f>Orders!F54-Collection!H54</f>
-        <v>2000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="55" hidden="1" spans="1:4">
@@ -14090,7 +14577,7 @@
       </c>
       <c r="D56" s="10">
         <f>Orders!F56-Collection!H56</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:4">
@@ -14135,7 +14622,7 @@
       </c>
       <c r="D59" s="10">
         <f>Orders!F59-Collection!H59</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:4">
@@ -14168,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" hidden="1" spans="1:4">
       <c r="A62" s="8" t="s">
         <v>82</v>
       </c>
@@ -14180,7 +14667,7 @@
       </c>
       <c r="D62" s="10">
         <f>Orders!F62-Collection!H62</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -14206,67 +14693,67 @@
         <v>9931812966</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D64" s="10">
         <f>Orders!F64-Collection!H64</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:4">
+    <row r="65" spans="1:4">
       <c r="A65" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="8">
         <v>7004399486</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D65" s="10">
         <f>Orders!F65-Collection!H65</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="8">
         <v>9939935008</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D66" s="10">
         <f>Orders!F66-Collection!H66</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="67" hidden="1" spans="1:4">
       <c r="A67" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" s="8">
         <v>8271027441</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D67" s="10">
         <f>Orders!F67-Collection!H67</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" hidden="1" spans="1:4">
       <c r="A68" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="8">
         <v>8709494155</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D68" s="10">
         <f>Orders!F68-Collection!H68</f>
@@ -14275,13 +14762,13 @@
     </row>
     <row r="69" hidden="1" spans="1:4">
       <c r="A69" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="8">
         <v>8210273217</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D69" s="10">
         <f>Orders!F69-Collection!H69</f>
@@ -14290,13 +14777,13 @@
     </row>
     <row r="70" hidden="1" spans="1:4">
       <c r="A70" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="11">
         <v>7903311240</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D70" s="10">
         <f>Orders!F70-Collection!H70</f>
@@ -14305,13 +14792,13 @@
     </row>
     <row r="71" hidden="1" spans="1:4">
       <c r="A71" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="8">
         <v>6202448688</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D71" s="10">
         <f>Orders!F71-Collection!H71</f>
@@ -14320,13 +14807,13 @@
     </row>
     <row r="72" hidden="1" spans="1:4">
       <c r="A72" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="8">
         <v>8709017189</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D72" s="10">
         <f>Orders!F72-Collection!H72</f>
@@ -14335,13 +14822,13 @@
     </row>
     <row r="73" hidden="1" spans="1:4">
       <c r="A73" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="8">
         <v>7909071642</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D73" s="10">
         <f>Orders!F73-Collection!H73</f>
@@ -14350,13 +14837,13 @@
     </row>
     <row r="74" hidden="1" spans="1:4">
       <c r="A74" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="8">
         <v>8825370430</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D74" s="10">
         <f>Orders!F74-Collection!H74</f>
@@ -14365,73 +14852,73 @@
     </row>
     <row r="75" hidden="1" spans="1:4">
       <c r="A75" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="8">
         <v>9631378928</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D75" s="10">
         <f>Orders!F75-Collection!H75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" hidden="1" spans="1:4">
       <c r="A76" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" s="8">
         <v>8271027441</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D76" s="10">
         <f>Orders!F76-Collection!H76</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B77" s="8">
         <v>6200769032</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D77" s="10">
         <f>Orders!F77-Collection!H77</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="78" hidden="1" spans="1:4">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B78" s="8">
         <v>7004695819</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D78" s="10">
         <f>Orders!F78-Collection!H78</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" s="8">
         <v>8789354609</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D79" s="10">
         <f>Orders!F79-Collection!H79</f>
@@ -14442,59 +14929,59 @@
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D80" s="10">
         <f>Orders!F80-Collection!H80</f>
         <v>67000</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:4">
+    <row r="81" spans="1:4">
       <c r="A81" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B81" s="8">
         <v>8789783884</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D81" s="10">
         <f>Orders!F81-Collection!H81</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="82" hidden="1" spans="1:4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D82" s="10">
         <f>Orders!F82-Collection!H82</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" hidden="1" spans="1:4">
       <c r="A83" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B83" s="8">
         <v>7079312729</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D83" s="10">
         <f>Orders!F83-Collection!H83</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" hidden="1" spans="1:4">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D84" s="10">
         <f>Orders!F84-Collection!H84</f>
@@ -14503,28 +14990,28 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B85" s="8">
         <v>7979068575</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D85" s="10">
         <f>Orders!F85-Collection!H85</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="86" hidden="1" spans="1:4">
       <c r="A86" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B86" s="8">
         <v>9934079439</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D86" s="10">
         <f>Orders!F86-Collection!H86</f>
@@ -14533,13 +15020,13 @@
     </row>
     <row r="87" hidden="1" spans="1:4">
       <c r="A87" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B87" s="8">
         <v>7903552643</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D87" s="10">
         <f>Orders!F87-Collection!H87</f>
@@ -14548,13 +15035,13 @@
     </row>
     <row r="88" hidden="1" spans="1:4">
       <c r="A88" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B88" s="8">
         <v>9911430509</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D88" s="10">
         <f>Orders!F88-Collection!H88</f>
@@ -14565,7 +15052,7 @@
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D89" s="10">
         <f>Orders!F89-Collection!H89</f>
@@ -14574,9 +15061,11 @@
     </row>
     <row r="90" hidden="1" spans="1:4">
       <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
+      <c r="B90" s="8">
+        <v>9905739212</v>
+      </c>
       <c r="C90" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D90" s="10">
         <f>Orders!F90-Collection!H90</f>
@@ -14587,31 +15076,31 @@
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D91" s="10">
         <f>Orders!F91-Collection!H91</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:4">
+    <row r="92" spans="1:4">
       <c r="A92" s="8"/>
       <c r="B92" s="8">
         <v>9015378357</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D92" s="10">
         <f>Orders!F92-Collection!H92</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93" hidden="1" spans="1:4">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D93" s="10">
         <f>Orders!F93-Collection!H93</f>
@@ -14624,18 +15113,18 @@
         <v>7254967519</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D94" s="10">
         <f>Orders!F94-Collection!H94</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="95" hidden="1" spans="1:4">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D95" s="10">
         <f>Orders!F95-Collection!H95</f>
@@ -14646,7 +15135,7 @@
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D96" s="10">
         <f>Orders!F96-Collection!H96</f>
@@ -14660,19 +15149,18 @@
         <filter val="500"/>
         <filter val="1000"/>
         <filter val="1100"/>
-        <filter val="1200"/>
         <filter val="2000"/>
+        <filter val="2200"/>
         <filter val="2500"/>
         <filter val="3000"/>
         <filter val="4000"/>
         <filter val="5000"/>
         <filter val="6000"/>
+        <filter val="6500"/>
+        <filter val="7000"/>
         <filter val="8000"/>
-        <filter val="8500"/>
-        <filter val="10000"/>
-        <filter val="10500"/>
-        <filter val="12000"/>
-        <filter val="216800"/>
+        <filter val="14000"/>
+        <filter val="189800"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/Recharge/April2021Recharge.xlsx
+++ b/Recharge/April2021Recharge.xlsx
@@ -333,6 +333,75 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+12000-Cash
+3000-Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1500-Digital
+500-Cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1000-Cash
+1000-Digital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="W66" authorId="0">
       <text>
         <r>
@@ -356,12 +425,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB77" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2200-Digital
+1000-Cash</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="199">
   <si>
     <t>S.No.</t>
   </si>
@@ -772,6 +864,12 @@
   </si>
   <si>
     <t>Shakti/Ashok</t>
+  </si>
+  <si>
+    <t>Shashi Satish</t>
+  </si>
+  <si>
+    <t>NAVIN KUM</t>
   </si>
   <si>
     <t>Naveen</t>
@@ -959,11 +1057,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -982,8 +1080,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,15 +1095,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,17 +1105,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1034,25 +1119,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,11 +1149,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1090,22 +1182,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1120,7 +1218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1212,7 +1310,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,13 +1418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,109 +1430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,13 +1448,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,19 +1484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,21 +1520,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1451,11 +1534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1479,22 +1568,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1509,24 +1616,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1541,130 +1639,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1729,7 +1827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1771,13 +1869,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2109,11 +2207,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="W16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="Y51" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA16" sqref="AA16"/>
+      <selection pane="bottomRight" activeCell="AC52" sqref="AC52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2256,22 +2354,22 @@
       <c r="A2" s="14"/>
       <c r="B2" s="26">
         <f>SUM(F3:F121)</f>
-        <v>1033600</v>
+        <v>1131600</v>
       </c>
       <c r="D2" s="15">
         <f>SUM(G3:G121)</f>
-        <v>892840</v>
+        <v>994760</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="27">
         <f>G2/1.04+H2</f>
-        <v>1033600</v>
+        <v>1131600</v>
       </c>
       <c r="G2" s="15">
         <f t="shared" ref="G2:G65" si="0">SUM(I2:AM2)</f>
-        <v>892840</v>
+        <v>994760</v>
       </c>
       <c r="H2" s="28">
         <f t="shared" ref="H2:AM2" si="1">SUM(H3:H121)</f>
@@ -2355,11 +2453,11 @@
       </c>
       <c r="AB2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43680</v>
       </c>
       <c r="AC2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>58240</v>
       </c>
       <c r="AD2" s="12">
         <f t="shared" si="1"/>
@@ -2415,11 +2513,11 @@
       </c>
       <c r="F3" s="12">
         <f t="shared" ref="F2:F18" si="2">G3/1.04+H3</f>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H3" s="29">
         <v>0</v>
@@ -2447,7 +2545,9 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="AB3" s="1">
+        <v>3120</v>
+      </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -2543,11 +2643,11 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>9360</v>
+        <v>10400</v>
       </c>
       <c r="H5" s="29">
         <v>1000</v>
@@ -2588,7 +2688,9 @@
       </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
+      <c r="AC5" s="1">
+        <v>1040</v>
+      </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -2615,11 +2717,11 @@
       </c>
       <c r="F6" s="12">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H6" s="29">
         <v>4000</v>
@@ -2648,7 +2750,9 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
+      <c r="AC6" s="1">
+        <v>5200</v>
+      </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -2675,11 +2779,11 @@
       </c>
       <c r="F7" s="12">
         <f t="shared" si="2"/>
-        <v>59000</v>
+        <v>63000</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="0"/>
-        <v>41600</v>
+        <v>45760</v>
       </c>
       <c r="H7" s="29">
         <v>19000</v>
@@ -2735,8 +2839,12 @@
       <c r="AA7" s="1">
         <v>2080</v>
       </c>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
+      <c r="AB7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -2885,11 +2993,11 @@
       </c>
       <c r="F10" s="12">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H10" s="29">
         <v>5000</v>
@@ -2923,7 +3031,9 @@
         <v>5200</v>
       </c>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
+      <c r="AB10" s="1">
+        <v>5200</v>
+      </c>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -3073,11 +3183,11 @@
       </c>
       <c r="F13" s="12">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="H13" s="29">
         <v>5000</v>
@@ -3109,7 +3219,9 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="AB13" s="1">
+        <v>5200</v>
+      </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -3135,11 +3247,11 @@
       </c>
       <c r="F14" s="12">
         <f t="shared" si="2"/>
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>30160</v>
+        <v>35360</v>
       </c>
       <c r="H14" s="29">
         <v>4000</v>
@@ -3177,7 +3289,9 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="AB14" s="1">
+        <v>5200</v>
+      </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -3323,11 +3437,11 @@
       </c>
       <c r="F17" s="12">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="0"/>
-        <v>3640</v>
+        <v>4680</v>
       </c>
       <c r="H17" s="29">
         <v>500</v>
@@ -3360,7 +3474,9 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
+      <c r="AC17" s="1">
+        <v>1040</v>
+      </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
@@ -3448,11 +3564,11 @@
       </c>
       <c r="F19" s="12">
         <f t="shared" ref="F19:F82" si="3">G19/1.04+H19</f>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="0"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H19" s="29">
         <v>0</v>
@@ -3484,7 +3600,9 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="AC19" s="1">
+        <v>3120</v>
+      </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
@@ -3631,11 +3749,11 @@
       </c>
       <c r="F22" s="12">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>9360</v>
       </c>
       <c r="H22" s="29">
         <v>1000</v>
@@ -3674,7 +3792,9 @@
         <v>1040</v>
       </c>
       <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
+      <c r="AC22" s="1">
+        <v>1040</v>
+      </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
@@ -3761,11 +3881,11 @@
       </c>
       <c r="F24" s="12">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H24" s="29">
         <v>0</v>
@@ -3791,7 +3911,9 @@
         <v>1040</v>
       </c>
       <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
+      <c r="AB24" s="1">
+        <v>1040</v>
+      </c>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -3876,11 +3998,11 @@
       </c>
       <c r="F26" s="12">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="0"/>
-        <v>31200</v>
+        <v>36400</v>
       </c>
       <c r="H26" s="29">
         <v>0</v>
@@ -3917,7 +4039,9 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
+      <c r="AC26" s="1">
+        <v>5200</v>
+      </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -4440,11 +4564,11 @@
       </c>
       <c r="F35" s="12">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G35" s="12">
         <f t="shared" si="0"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="H35" s="29">
         <v>0</v>
@@ -4482,7 +4606,9 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
+      <c r="AB35" s="1">
+        <v>1040</v>
+      </c>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -4932,11 +5058,11 @@
       </c>
       <c r="F43" s="12">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="G43" s="12">
         <f t="shared" si="0"/>
-        <v>28080</v>
+        <v>31200</v>
       </c>
       <c r="H43" s="29">
         <v>3000</v>
@@ -4979,7 +5105,9 @@
         <v>3120</v>
       </c>
       <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
+      <c r="AC43" s="1">
+        <v>3120</v>
+      </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
@@ -5062,11 +5190,11 @@
       </c>
       <c r="F45" s="12">
         <f t="shared" si="3"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G45" s="12">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H45" s="29">
         <v>6000</v>
@@ -5101,7 +5229,9 @@
         <v>3120</v>
       </c>
       <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
+      <c r="AC45" s="1">
+        <v>3120</v>
+      </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
@@ -5188,11 +5318,11 @@
       </c>
       <c r="F47" s="12">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G47" s="12">
         <f t="shared" si="0"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H47" s="29">
         <v>3000</v>
@@ -5222,7 +5352,9 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
+      <c r="AB47" s="1">
+        <v>3120</v>
+      </c>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -5306,11 +5438,11 @@
       </c>
       <c r="F49" s="12">
         <f t="shared" si="3"/>
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="G49" s="12">
         <f t="shared" si="0"/>
-        <v>28080</v>
+        <v>31200</v>
       </c>
       <c r="H49" s="29">
         <v>1000</v>
@@ -5352,7 +5484,9 @@
         <v>3120</v>
       </c>
       <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
+      <c r="AB49" s="1">
+        <v>3120</v>
+      </c>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -5438,11 +5572,11 @@
       </c>
       <c r="F51" s="12">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G51" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H51" s="29">
         <v>1000</v>
@@ -5475,7 +5609,9 @@
       </c>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
+      <c r="AC51" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
@@ -5554,11 +5690,11 @@
       </c>
       <c r="F53" s="12">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="G53" s="12">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>17680</v>
       </c>
       <c r="H53" s="29">
         <v>0</v>
@@ -5608,8 +5744,12 @@
       <c r="AA53" s="1">
         <v>1040</v>
       </c>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
+      <c r="AB53" s="1">
+        <v>1040</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>1040</v>
+      </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
@@ -5634,11 +5774,11 @@
       </c>
       <c r="F54" s="12">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" si="0"/>
-        <v>14560</v>
+        <v>18720</v>
       </c>
       <c r="H54" s="29">
         <v>2000</v>
@@ -5675,8 +5815,12 @@
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
+      <c r="AB54" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
@@ -5931,11 +6075,11 @@
       </c>
       <c r="F59" s="12">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G59" s="12">
         <f t="shared" si="0"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="H59" s="29">
         <v>0</v>
@@ -5967,7 +6111,9 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
+      <c r="AB59" s="1">
+        <v>5200</v>
+      </c>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -6113,11 +6259,11 @@
       </c>
       <c r="F62" s="12">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G62" s="12">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H62" s="29">
         <v>0</v>
@@ -6151,7 +6297,9 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
+      <c r="AC62" s="1">
+        <v>5200</v>
+      </c>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
@@ -6294,11 +6442,11 @@
       </c>
       <c r="F65" s="12">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G65" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H65" s="24">
         <v>2000</v>
@@ -6331,7 +6479,9 @@
       </c>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
+      <c r="AC65" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
@@ -6538,11 +6688,11 @@
       </c>
       <c r="F69" s="12">
         <f t="shared" si="3"/>
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="G69" s="12">
         <f t="shared" si="4"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H69" s="29">
         <v>-500</v>
@@ -6574,7 +6724,9 @@
       </c>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
+      <c r="AC69" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
@@ -6599,11 +6751,11 @@
       </c>
       <c r="F70" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G70" s="12">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H70" s="29">
         <v>0</v>
@@ -6630,7 +6782,9 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
+      <c r="AC70" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
@@ -6655,11 +6809,11 @@
       </c>
       <c r="F71" s="12">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G71" s="12">
         <f t="shared" si="4"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H71" s="29">
         <v>0</v>
@@ -6690,7 +6844,9 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
+      <c r="AC71" s="1">
+        <v>1040</v>
+      </c>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
@@ -6715,11 +6871,11 @@
       </c>
       <c r="F72" s="12">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G72" s="12">
         <f t="shared" si="4"/>
-        <v>36400</v>
+        <v>41600</v>
       </c>
       <c r="H72" s="29">
         <v>5000</v>
@@ -6758,7 +6914,9 @@
       </c>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
+      <c r="AC72" s="1">
+        <v>5200</v>
+      </c>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
@@ -6783,11 +6941,11 @@
       </c>
       <c r="F73" s="12">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G73" s="12">
         <f t="shared" si="4"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H73" s="29">
         <v>3000</v>
@@ -6821,7 +6979,9 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
+      <c r="AB73" s="1">
+        <v>3120</v>
+      </c>
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
@@ -6966,11 +7126,11 @@
       </c>
       <c r="F76" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G76" s="12">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H76" s="29">
         <v>0</v>
@@ -6996,7 +7156,9 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
+      <c r="AC76" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
@@ -7021,11 +7183,11 @@
       </c>
       <c r="F77" s="12">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="G77" s="12">
         <f t="shared" si="4"/>
-        <v>12480</v>
+        <v>13520</v>
       </c>
       <c r="H77" s="29">
         <v>0</v>
@@ -7071,7 +7233,9 @@
       <c r="AA77" s="1">
         <v>1040</v>
       </c>
-      <c r="AB77" s="1"/>
+      <c r="AB77" s="1">
+        <v>1040</v>
+      </c>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
@@ -7097,11 +7261,11 @@
       </c>
       <c r="F78" s="12">
         <f t="shared" si="3"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G78" s="12">
         <f t="shared" si="4"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H78" s="29">
         <v>3000</v>
@@ -7136,7 +7300,9 @@
       </c>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
+      <c r="AC78" s="1">
+        <v>3120</v>
+      </c>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
@@ -7161,11 +7327,11 @@
       </c>
       <c r="F79" s="12">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G79" s="12">
         <f t="shared" si="4"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H79" s="29">
         <v>2000</v>
@@ -7197,7 +7363,9 @@
         <v>2080</v>
       </c>
       <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
+      <c r="AB79" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC79" s="1"/>
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
@@ -7278,11 +7446,11 @@
       </c>
       <c r="F81" s="12">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G81" s="12">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H81" s="29">
         <v>0</v>
@@ -7313,7 +7481,9 @@
       </c>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
+      <c r="AC81" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
@@ -7673,11 +7843,11 @@
       </c>
       <c r="F88" s="12">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G88" s="12">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H88" s="29">
         <v>0</v>
@@ -7706,7 +7876,9 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
+      <c r="AC88" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
@@ -7887,11 +8059,11 @@
       </c>
       <c r="F92" s="12">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G92" s="12">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="H92" s="29">
         <v>0</v>
@@ -7926,7 +8098,9 @@
       </c>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
+      <c r="AC92" s="1">
+        <v>1040</v>
+      </c>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
@@ -8236,11 +8410,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="S37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="W6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -8385,14 +8559,14 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15">
         <f>SUM(H3:H121)</f>
-        <v>773300</v>
+        <v>940500</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="17">
         <f t="shared" ref="H2:H65" si="0">SUM(I2:AM2)</f>
-        <v>773300</v>
+        <v>940500</v>
       </c>
       <c r="I2" s="12">
         <f t="shared" ref="I2:AJ2" si="1">SUM(I3:I121)</f>
@@ -8468,15 +8642,15 @@
       </c>
       <c r="AA2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69500</v>
       </c>
       <c r="AB2" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47700</v>
       </c>
       <c r="AC2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AD2" s="12">
         <f t="shared" si="1"/>
@@ -8539,7 +8713,7 @@
       </c>
       <c r="H3" s="12">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -8565,7 +8739,9 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
+      <c r="AC3" s="20">
+        <v>3000</v>
+      </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -8659,7 +8835,7 @@
       </c>
       <c r="H5" s="12">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
@@ -8690,7 +8866,9 @@
         <v>2500</v>
       </c>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="AB5" s="1">
+        <v>1500</v>
+      </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -8727,7 +8905,7 @@
       </c>
       <c r="H6" s="12">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -8757,7 +8935,9 @@
         <v>2000</v>
       </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
+      <c r="AA6" s="20">
+        <v>3000</v>
+      </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
@@ -8795,7 +8975,7 @@
       </c>
       <c r="H7" s="12">
         <f t="shared" si="0"/>
-        <v>34000</v>
+        <v>49000</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="20">
@@ -8823,7 +9003,9 @@
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
+      <c r="AA7" s="20">
+        <v>15000</v>
+      </c>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
@@ -8844,6 +9026,9 @@
       <c r="C8" s="11">
         <v>6</v>
       </c>
+      <c r="D8" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="E8" s="11">
         <v>9110978139</v>
       </c>
@@ -8855,7 +9040,7 @@
       </c>
       <c r="H8" s="12">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="I8" s="1">
         <v>2000</v>
@@ -8881,7 +9066,9 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
+      <c r="AA8" s="20">
+        <v>2000</v>
+      </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
@@ -8902,6 +9089,9 @@
       <c r="C9" s="11">
         <v>7</v>
       </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
       <c r="E9" s="11">
         <v>8340201321</v>
       </c>
@@ -8913,7 +9103,7 @@
       </c>
       <c r="H9" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -8938,7 +9128,9 @@
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
+      <c r="AB9" s="20">
+        <v>2000</v>
+      </c>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
@@ -8969,7 +9161,7 @@
       </c>
       <c r="H10" s="12">
         <f t="shared" si="0"/>
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="I10" s="1">
         <v>5000</v>
@@ -9003,8 +9195,12 @@
         <v>2500</v>
       </c>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
+      <c r="AA10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>6000</v>
+      </c>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -9022,13 +9218,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C11" s="11">
         <v>9</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E11" s="11">
         <v>9973022718</v>
@@ -9099,7 +9295,7 @@
       </c>
       <c r="H12" s="12">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -9129,7 +9325,9 @@
         <v>1000</v>
       </c>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="AA12" s="1">
+        <v>1000</v>
+      </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -9151,7 +9349,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E13" s="11">
         <v>8340182577</v>
@@ -9164,7 +9362,7 @@
       </c>
       <c r="H13" s="12">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -9194,7 +9392,9 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+      <c r="AC13" s="20">
+        <v>5000</v>
+      </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -9211,13 +9411,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" s="11">
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E14" s="11">
         <v>7004740439</v>
@@ -9230,7 +9430,7 @@
       </c>
       <c r="H14" s="12">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="I14" s="1">
         <v>2000</v>
@@ -9274,9 +9474,15 @@
       <c r="Z14" s="20">
         <v>1500</v>
       </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
+      <c r="AA14" s="20">
+        <v>2000</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AC14" s="20">
+        <v>1000</v>
+      </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
@@ -9354,13 +9560,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C16" s="11">
         <v>14</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E16" s="11">
         <v>7321004323</v>
@@ -9373,7 +9579,7 @@
       </c>
       <c r="H16" s="12">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -9396,7 +9602,9 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
+      <c r="AB16" s="1">
+        <v>1000</v>
+      </c>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
@@ -9417,7 +9625,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E17" s="11">
         <v>7903378748</v>
@@ -9527,13 +9735,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C19" s="11">
         <v>17</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E19" s="11">
         <v>9608475282</v>
@@ -9546,7 +9754,7 @@
       </c>
       <c r="H19" s="12">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
@@ -9574,7 +9782,9 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
+      <c r="AA19" s="1">
+        <v>3000</v>
+      </c>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
@@ -9593,13 +9803,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C20" s="11">
         <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E20" s="11">
         <v>9661555592</v>
@@ -9612,7 +9822,7 @@
       </c>
       <c r="H20" s="12">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
@@ -9636,7 +9846,9 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
+      <c r="AA20" s="1">
+        <v>5000</v>
+      </c>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
@@ -9655,13 +9867,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C21" s="11">
         <v>19</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E21" s="11">
         <v>8340523512</v>
@@ -9674,7 +9886,7 @@
       </c>
       <c r="H21" s="12">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -9701,7 +9913,9 @@
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
+      <c r="AB21" s="20">
+        <v>2000</v>
+      </c>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -9722,7 +9936,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E22" s="11">
         <v>8825310472</v>
@@ -9735,7 +9949,7 @@
       </c>
       <c r="H22" s="12">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
@@ -9769,9 +9983,13 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
+      <c r="AA22" s="1">
+        <v>1000</v>
+      </c>
       <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
+      <c r="AC22" s="20">
+        <v>1000</v>
+      </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
@@ -9788,13 +10006,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C23" s="11">
         <v>21</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E23" s="11">
         <v>7004478123</v>
@@ -9807,7 +10025,7 @@
       </c>
       <c r="H23" s="12">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="I23" s="20">
         <v>5000</v>
@@ -9833,7 +10051,9 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
+      <c r="AA23" s="20">
+        <v>5000</v>
+      </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
@@ -9865,7 +10085,7 @@
       </c>
       <c r="H24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -9885,9 +10105,13 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
+      <c r="AA24" s="1">
+        <v>1000</v>
+      </c>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
+      <c r="AC24" s="1">
+        <v>1000</v>
+      </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
@@ -9904,13 +10128,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C25" s="11">
         <v>23</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E25" s="11">
         <v>7006041121</v>
@@ -9923,7 +10147,7 @@
       </c>
       <c r="H25" s="12">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="I25" s="20">
         <v>3000</v>
@@ -9951,7 +10175,9 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
+      <c r="AC25" s="1">
+        <v>3000</v>
+      </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
@@ -9968,13 +10194,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C26" s="11">
         <v>24</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E26" s="11">
         <v>8709658240</v>
@@ -9987,7 +10213,7 @@
       </c>
       <c r="H26" s="12">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -10021,7 +10247,9 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
+      <c r="AC26" s="20">
+        <v>5000</v>
+      </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -10051,7 +10279,7 @@
       </c>
       <c r="H27" s="12">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="I27" s="1">
         <v>3000</v>
@@ -10083,7 +10311,9 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
+      <c r="AA27" s="1">
+        <v>3000</v>
+      </c>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -10105,7 +10335,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E28" s="11">
         <v>9973040600</v>
@@ -10118,7 +10348,7 @@
       </c>
       <c r="H28" s="12">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -10149,7 +10379,9 @@
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
+      <c r="AB28" s="20">
+        <v>1000</v>
+      </c>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -10285,13 +10517,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C31" s="11">
         <v>29</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>36</v>
@@ -10301,7 +10533,7 @@
       </c>
       <c r="H31" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -10325,7 +10557,9 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
+      <c r="AA31" s="20">
+        <v>5000</v>
+      </c>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
@@ -10344,13 +10578,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C32" s="11">
         <v>30</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>36</v>
@@ -10360,7 +10594,7 @@
       </c>
       <c r="H32" s="12">
         <f t="shared" si="0"/>
-        <v>34000</v>
+        <v>39500</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -10388,7 +10622,9 @@
         <v>6000</v>
       </c>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
+      <c r="AA32" s="20">
+        <v>5500</v>
+      </c>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
@@ -10417,7 +10653,7 @@
       </c>
       <c r="H33" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -10445,8 +10681,12 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
+      <c r="AA33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>1000</v>
+      </c>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -10464,13 +10704,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C34" s="11">
         <v>32</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>51</v>
@@ -10539,7 +10779,7 @@
       </c>
       <c r="H35" s="12">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
@@ -10573,7 +10813,9 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
+      <c r="AC35" s="1">
+        <v>1000</v>
+      </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
@@ -10593,7 +10835,7 @@
         <v>34</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E36" s="11">
         <v>7654800030</v>
@@ -10759,13 +11001,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C39" s="11">
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>51</v>
@@ -10775,7 +11017,7 @@
       </c>
       <c r="H39" s="12">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="20">
@@ -10807,7 +11049,9 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
+      <c r="AC39" s="20">
+        <v>3000</v>
+      </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
@@ -10824,16 +11068,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C40" s="11">
         <v>38</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>51</v>
@@ -10896,7 +11140,7 @@
       </c>
       <c r="H41" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -10918,7 +11162,9 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
+      <c r="AC41" s="1">
+        <v>2000</v>
+      </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
@@ -11005,7 +11251,7 @@
       </c>
       <c r="H43" s="12">
         <f t="shared" si="0"/>
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
@@ -11042,8 +11288,12 @@
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
+      <c r="AB43" s="1">
+        <v>7000</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>3000</v>
+      </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
@@ -11063,7 +11313,7 @@
         <v>42</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>51</v>
@@ -11119,7 +11369,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>51</v>
@@ -11129,7 +11379,7 @@
       </c>
       <c r="H45" s="12">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="I45" s="1">
         <v>6000</v>
@@ -11158,8 +11408,12 @@
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
+      <c r="AB45" s="20">
+        <v>3000</v>
+      </c>
+      <c r="AC45" s="20">
+        <v>3000</v>
+      </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
@@ -11176,13 +11430,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C46" s="11">
         <v>44</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>64</v>
@@ -11240,7 +11494,7 @@
         <v>45</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>64</v>
@@ -11250,7 +11504,7 @@
       </c>
       <c r="H47" s="12">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="20">
@@ -11282,7 +11536,9 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
+      <c r="AC47" s="1">
+        <v>3000</v>
+      </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
@@ -11299,13 +11555,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C48" s="11">
         <v>46</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E48" s="11">
         <v>7004729703</v>
@@ -11361,13 +11617,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C49" s="11">
         <v>47</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E49" s="11">
         <v>8863097933</v>
@@ -11380,7 +11636,7 @@
       </c>
       <c r="H49" s="12">
         <f t="shared" si="0"/>
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
@@ -11413,7 +11669,9 @@
         <v>5000</v>
       </c>
       <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
+      <c r="AB49" s="1">
+        <v>5000</v>
+      </c>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -11431,13 +11689,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C50" s="11">
         <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E50" s="11">
         <v>9835443096</v>
@@ -11491,13 +11749,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C51" s="11">
         <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>64</v>
@@ -11507,7 +11765,7 @@
       </c>
       <c r="H51" s="12">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -11534,7 +11792,9 @@
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
+      <c r="AB51" s="20">
+        <v>2000</v>
+      </c>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -11601,13 +11861,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C53" s="11">
         <v>51</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>64</v>
@@ -11617,7 +11877,7 @@
       </c>
       <c r="H53" s="12">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1">
@@ -11649,7 +11909,9 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
+      <c r="AC53" s="1">
+        <v>4000</v>
+      </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
@@ -11721,13 +11983,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C55" s="11">
         <v>53</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>64</v>
@@ -11778,13 +12040,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C56" s="11">
         <v>54</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>64</v>
@@ -11943,13 +12205,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C59" s="11">
         <v>57</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>77</v>
@@ -12005,7 +12267,7 @@
         <v>58</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>77</v>
@@ -12116,13 +12378,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C62" s="11">
         <v>60</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E62" s="11">
         <v>9504958065</v>
@@ -12232,16 +12494,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C64" s="11">
         <v>62</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>82</v>
@@ -12292,13 +12554,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C65" s="11">
         <v>63</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E65" s="11">
         <v>7004399486</v>
@@ -12358,13 +12620,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C66" s="11">
         <v>64</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>88</v>
@@ -12535,7 +12797,7 @@
       </c>
       <c r="H69" s="12">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -12561,9 +12823,13 @@
         <v>1000</v>
       </c>
       <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
+      <c r="AA69" s="1">
+        <v>2000</v>
+      </c>
       <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
+      <c r="AC69" s="1">
+        <v>2000</v>
+      </c>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
@@ -12692,7 +12958,7 @@
         <v>70</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>93</v>
@@ -12702,7 +12968,7 @@
       </c>
       <c r="H72" s="12">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="I72" s="1">
         <v>5000</v>
@@ -12736,9 +13002,13 @@
         <v>5000</v>
       </c>
       <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
+      <c r="AA72" s="1">
+        <v>5000</v>
+      </c>
       <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
+      <c r="AC72" s="1">
+        <v>5000</v>
+      </c>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
@@ -12765,7 +13035,7 @@
       </c>
       <c r="H73" s="12">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="I73" s="1">
         <v>3000</v>
@@ -12799,7 +13069,9 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
+      <c r="AC73" s="1">
+        <v>3000</v>
+      </c>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
@@ -12816,13 +13088,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C74" s="11">
         <v>72</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E74" s="11">
         <v>8825370430</v>
@@ -12835,7 +13107,7 @@
       </c>
       <c r="H74" s="12">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1">
@@ -12861,7 +13133,9 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
+      <c r="AA74" s="20">
+        <v>2000</v>
+      </c>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
       <c r="AD74" s="1"/>
@@ -12985,13 +13259,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C77" s="11">
         <v>75</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E77" s="11">
         <v>6200769032</v>
@@ -13004,7 +13278,7 @@
       </c>
       <c r="H77" s="12">
         <f t="shared" si="2"/>
-        <v>7800</v>
+        <v>11000</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -13032,7 +13306,9 @@
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
+      <c r="AB77" s="20">
+        <v>3200</v>
+      </c>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
@@ -13050,13 +13326,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C78" s="11">
         <v>76</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>103</v>
@@ -13066,7 +13342,7 @@
       </c>
       <c r="H78" s="12">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -13096,7 +13372,9 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
+      <c r="AA78" s="20">
+        <v>3000</v>
+      </c>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
@@ -13115,13 +13393,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C79" s="11">
         <v>77</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>103</v>
@@ -13222,16 +13500,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C81" s="11">
         <v>79</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>108</v>
@@ -13429,13 +13707,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C85" s="11">
         <v>83</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>114</v>
@@ -13445,7 +13723,7 @@
       </c>
       <c r="H85" s="12">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -13468,7 +13746,9 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
+      <c r="AB85" s="20">
+        <v>10000</v>
+      </c>
       <c r="AC85" s="1"/>
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
@@ -13540,13 +13820,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C87" s="11">
         <v>85</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E87" s="11">
         <v>7903552643</v>
@@ -13601,7 +13881,7 @@
         <v>86</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E88" s="11">
         <v>9911430509</v>
@@ -13703,20 +13983,20 @@
         <v>88</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C90" s="11">
         <v>88</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>121</v>
       </c>
       <c r="H90" s="12">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="20">
@@ -13740,7 +14020,9 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
+      <c r="AA90" s="20">
+        <v>1000</v>
+      </c>
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
       <c r="AD90" s="1"/>
@@ -13808,13 +14090,13 @@
         <v>90</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E92" s="11">
         <v>9015378357</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>123</v>
@@ -13911,7 +14193,7 @@
         <v>92</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>125</v>
@@ -13921,7 +14203,7 @@
       </c>
       <c r="H94" s="12">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I94" s="1">
         <v>1000</v>
@@ -13947,7 +14229,9 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
+      <c r="AC94" s="1">
+        <v>2000</v>
+      </c>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
@@ -14108,11 +14392,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -14137,7 +14421,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14148,11 +14432,11 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>260300</v>
+        <v>191100</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(D3:D96)</f>
-        <v>260300</v>
+        <v>191100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -14197,10 +14481,10 @@
       </c>
       <c r="D5" s="10">
         <f>Orders!F5-Collection!H5</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -14212,7 +14496,7 @@
       </c>
       <c r="D6" s="10">
         <f>Orders!F6-Collection!H6</f>
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -14227,10 +14511,10 @@
       </c>
       <c r="D7" s="10">
         <f>Orders!F7-Collection!H7</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -14242,10 +14526,10 @@
       </c>
       <c r="D8" s="10">
         <f>Orders!F8-Collection!H8</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -14257,7 +14541,7 @@
       </c>
       <c r="D9" s="10">
         <f>Orders!F9-Collection!H9</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -14272,10 +14556,10 @@
       </c>
       <c r="D10" s="10">
         <f>Orders!F10-Collection!H10</f>
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -14290,7 +14574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" hidden="1" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
@@ -14302,7 +14586,7 @@
       </c>
       <c r="D12" s="10">
         <f>Orders!F12-Collection!H12</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14332,10 +14616,10 @@
       </c>
       <c r="D14" s="10">
         <f>Orders!F14-Collection!H14</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
@@ -14362,7 +14646,7 @@
       </c>
       <c r="D16" s="10">
         <f>Orders!F16-Collection!H16</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14377,7 +14661,7 @@
       </c>
       <c r="D17" s="10">
         <f>Orders!F17-Collection!H17</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -14395,7 +14679,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" hidden="1" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
@@ -14410,7 +14694,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" hidden="1" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -14422,10 +14706,10 @@
       </c>
       <c r="D20" s="10">
         <f>Orders!F20-Collection!H20</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
@@ -14437,7 +14721,7 @@
       </c>
       <c r="D21" s="10">
         <f>Orders!F21-Collection!H21</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -14452,7 +14736,7 @@
       </c>
       <c r="D22" s="10">
         <f>Orders!F22-Collection!H22</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -14467,7 +14751,7 @@
       </c>
       <c r="D23" s="10">
         <f>Orders!F23-Collection!H23</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -14482,7 +14766,7 @@
       </c>
       <c r="D24" s="10">
         <f>Orders!F24-Collection!H24</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -14497,7 +14781,7 @@
       </c>
       <c r="D25" s="10">
         <f>Orders!F25-Collection!H25</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -14515,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" hidden="1" spans="1:4">
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
@@ -14527,7 +14811,7 @@
       </c>
       <c r="D27" s="10">
         <f>Orders!F27-Collection!H27</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -14542,10 +14826,10 @@
       </c>
       <c r="D28" s="10">
         <f>Orders!F28-Collection!H28</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
@@ -14560,7 +14844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" hidden="1" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>36</v>
       </c>
@@ -14575,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" hidden="1" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
@@ -14587,7 +14871,7 @@
       </c>
       <c r="D31" s="10">
         <f>Orders!F31-Collection!H31</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -14602,10 +14886,10 @@
       </c>
       <c r="D32" s="10">
         <f>Orders!F32-Collection!H32</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>36</v>
       </c>
@@ -14617,7 +14901,7 @@
       </c>
       <c r="D33" s="10">
         <f>Orders!F33-Collection!H33</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -14650,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" hidden="1" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
@@ -14665,7 +14949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" hidden="1" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>51</v>
       </c>
@@ -14680,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" hidden="1" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>51</v>
       </c>
@@ -14707,10 +14991,10 @@
       </c>
       <c r="D39" s="10">
         <f>Orders!F39-Collection!H39</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>51</v>
       </c>
@@ -14737,10 +15021,10 @@
       </c>
       <c r="D41" s="10">
         <f>Orders!F41-Collection!H41</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="1:4">
       <c r="A42" s="8" t="s">
         <v>51</v>
       </c>
@@ -14767,10 +15051,10 @@
       </c>
       <c r="D43" s="10">
         <f>Orders!F43-Collection!H43</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:4">
       <c r="A44" s="8" t="s">
         <v>51</v>
       </c>
@@ -14795,10 +15079,10 @@
       </c>
       <c r="D45" s="10">
         <f>Orders!F45-Collection!H45</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="8" t="s">
         <v>64</v>
       </c>
@@ -14828,7 +15112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" hidden="1" spans="1:4">
       <c r="A48" s="8" t="s">
         <v>64</v>
       </c>
@@ -14853,7 +15137,7 @@
       </c>
       <c r="D49" s="10">
         <f>Orders!F49-Collection!H49</f>
-        <v>7500</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -14871,7 +15155,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" hidden="1" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>64</v>
       </c>
@@ -14886,7 +15170,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" hidden="1" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>64</v>
       </c>
@@ -14911,7 +15195,7 @@
       </c>
       <c r="D53" s="10">
         <f>Orders!F53-Collection!H53</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -14926,10 +15210,10 @@
       </c>
       <c r="D54" s="10">
         <f>Orders!F54-Collection!H54</f>
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>64</v>
       </c>
@@ -14957,7 +15241,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" hidden="1" spans="1:4">
       <c r="A57" s="8" t="s">
         <v>64</v>
       </c>
@@ -14972,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="8" t="s">
         <v>77</v>
       </c>
@@ -14999,10 +15283,10 @@
       </c>
       <c r="D59" s="10">
         <f>Orders!F59-Collection!H59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:4">
       <c r="A60" s="8" t="s">
         <v>77</v>
       </c>
@@ -15017,7 +15301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" hidden="1" spans="1:4">
       <c r="A61" s="8" t="s">
         <v>77</v>
       </c>
@@ -15044,7 +15328,7 @@
       </c>
       <c r="D62" s="10">
         <f>Orders!F62-Collection!H62</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -15062,7 +15346,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="8" t="s">
         <v>82</v>
       </c>
@@ -15089,7 +15373,7 @@
       </c>
       <c r="D65" s="10">
         <f>Orders!F65-Collection!H65</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -15107,7 +15391,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" hidden="1" spans="1:4">
       <c r="A67" s="8" t="s">
         <v>91</v>
       </c>
@@ -15149,7 +15433,7 @@
       </c>
       <c r="D69" s="10">
         <f>Orders!F69-Collection!H69</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -15164,10 +15448,10 @@
       </c>
       <c r="D70" s="10">
         <f>Orders!F70-Collection!H70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" hidden="1" spans="1:4">
       <c r="A71" s="8" t="s">
         <v>93</v>
       </c>
@@ -15179,7 +15463,7 @@
       </c>
       <c r="D71" s="10">
         <f>Orders!F71-Collection!H71</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -15194,7 +15478,7 @@
       </c>
       <c r="D72" s="10">
         <f>Orders!F72-Collection!H72</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -15212,7 +15496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" hidden="1" spans="1:4">
       <c r="A74" s="8" t="s">
         <v>93</v>
       </c>
@@ -15224,10 +15508,10 @@
       </c>
       <c r="D74" s="10">
         <f>Orders!F74-Collection!H74</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="1:4">
       <c r="A75" s="8" t="s">
         <v>93</v>
       </c>
@@ -15242,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" hidden="1" spans="1:4">
       <c r="A76" s="8" t="s">
         <v>93</v>
       </c>
@@ -15254,7 +15538,7 @@
       </c>
       <c r="D76" s="10">
         <f>Orders!F76-Collection!H76</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -15269,10 +15553,10 @@
       </c>
       <c r="D77" s="10">
         <f>Orders!F77-Collection!H77</f>
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" spans="1:4">
       <c r="A78" s="8" t="s">
         <v>103</v>
       </c>
@@ -15299,10 +15583,10 @@
       </c>
       <c r="D79" s="10">
         <f>Orders!F79-Collection!H79</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="1:4">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9" t="s">
@@ -15313,7 +15597,7 @@
         <v>67000</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" hidden="1" spans="1:4">
       <c r="A81" s="8" t="s">
         <v>108</v>
       </c>
@@ -15325,10 +15609,10 @@
       </c>
       <c r="D81" s="10">
         <f>Orders!F81-Collection!H81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="1:4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9" t="s">
@@ -15339,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" hidden="1" spans="1:4">
       <c r="A83" s="8" t="s">
         <v>111</v>
       </c>
@@ -15354,7 +15638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" hidden="1" spans="1:4">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9" t="s">
@@ -15365,7 +15649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" hidden="1" spans="1:4">
       <c r="A85" s="8" t="s">
         <v>114</v>
       </c>
@@ -15377,10 +15661,10 @@
       </c>
       <c r="D85" s="10">
         <f>Orders!F85-Collection!H85</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="1:4">
       <c r="A86" s="8" t="s">
         <v>114</v>
       </c>
@@ -15395,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" hidden="1" spans="1:4">
       <c r="A87" s="8" t="s">
         <v>114</v>
       </c>
@@ -15422,10 +15706,10 @@
       </c>
       <c r="D88" s="10">
         <f>Orders!F88-Collection!H88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="89" hidden="1" spans="1:4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
@@ -15436,7 +15720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" hidden="1" spans="1:4">
       <c r="A90" s="8"/>
       <c r="B90" s="8">
         <v>9905739212</v>
@@ -15446,10 +15730,10 @@
       </c>
       <c r="D90" s="10">
         <f>Orders!F90-Collection!H90</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" hidden="1" spans="1:4">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
@@ -15470,10 +15754,10 @@
       </c>
       <c r="D92" s="10">
         <f>Orders!F92-Collection!H92</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="93" hidden="1" spans="1:4">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9" t="s">
@@ -15494,10 +15778,10 @@
       </c>
       <c r="D94" s="10">
         <f>Orders!F94-Collection!H94</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" spans="1:4">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
@@ -15508,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" hidden="1" spans="1:4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9" t="s">
@@ -15521,6 +15805,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D96">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1000"/>
+        <filter val="1100"/>
+        <filter val="1500"/>
+        <filter val="2000"/>
+        <filter val="2500"/>
+        <filter val="3000"/>
+        <filter val="4000"/>
+        <filter val="5000"/>
+        <filter val="5500"/>
+        <filter val="6000"/>
+        <filter val="8000"/>
+        <filter val="9500"/>
+        <filter val="10000"/>
+        <filter val="12000"/>
+        <filter val="217100"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
